--- a/awm/doc/log/log_201608040103_liuguangyue.xlsx
+++ b/awm/doc/log/log_201608040103_liuguangyue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15030" windowHeight="4320" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>日期</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>执行情况</t>
+  </si>
+  <si>
+    <t>第十周</t>
+  </si>
+  <si>
+    <t>学习HTML和Cs's</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>学习JavaScript</t>
+  </si>
+  <si>
+    <t>第十一周</t>
   </si>
 </sst>
 </file>
@@ -50,12 +65,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,20 +82,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,62 +115,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +154,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,48 +185,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,16 +430,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +469,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,176 +515,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,12 +1052,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,17 +1077,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="77.25" customHeight="1" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
+    <row r="2" ht="77.25" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040103_liuguangyue.xlsx
+++ b/awm/doc/log/log_201608040103_liuguangyue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -39,25 +39,79 @@
 2.数据库表自动生成；</t>
   </si>
   <si>
-    <t>周次</t>
-  </si>
-  <si>
     <t>执行情况</t>
   </si>
   <si>
-    <t>第十周</t>
-  </si>
-  <si>
-    <t>学习HTML和Cs's</t>
+    <t>学习HTML简介和基本标签</t>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>学习JavaScript</t>
-  </si>
-  <si>
-    <t>第十一周</t>
+    <t>学习HTML表单标签和框架标签和其他</t>
+  </si>
+  <si>
+    <t>学习 HTML表单标签和框架标签和其他</t>
+  </si>
+  <si>
+    <t>学习css</t>
+  </si>
+  <si>
+    <t>学习css简介和css选择器</t>
+  </si>
+  <si>
+    <t>学习css属性</t>
+  </si>
+  <si>
+    <t>学习css盒子模型</t>
+  </si>
+  <si>
+    <t>学习JS</t>
+  </si>
+  <si>
+    <t>学习JS简介和基本语法</t>
+  </si>
+  <si>
+    <t>学习JS内置对象</t>
+  </si>
+  <si>
+    <t>学习JS函数</t>
+  </si>
+  <si>
+    <t>学习JS的事件</t>
+  </si>
+  <si>
+    <t>学习JS事件</t>
+  </si>
+  <si>
+    <t>学习JS的boss</t>
+  </si>
+  <si>
+    <t>学习JS的Boss</t>
+  </si>
+  <si>
+    <t>复习HTML的重要标签</t>
+  </si>
+  <si>
+    <t>复习完成HTML的重要标签</t>
+  </si>
+  <si>
+    <t>复习JS</t>
+  </si>
+  <si>
+    <t>复习JS完毕</t>
+  </si>
+  <si>
+    <t>搭建框架中的dao</t>
+  </si>
+  <si>
+    <t>搭建dao完成</t>
+  </si>
+  <si>
+    <t>搭建框架中的service</t>
+  </si>
+  <si>
+    <t>完成工程目录中的service搭建</t>
   </si>
 </sst>
 </file>
@@ -65,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,7 +141,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,21 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -138,11 +185,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,25 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +264,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -211,13 +272,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +286,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,9 +482,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,37 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,91 +595,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,40 +706,22 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,51 +1103,225 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="77.25" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" ht="19" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040103_liuguangyue.xlsx
+++ b/awm/doc/log/log_201608040103_liuguangyue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="15870" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -112,6 +112,51 @@
   </si>
   <si>
     <t>完成工程目录中的service搭建</t>
+  </si>
+  <si>
+    <t>搭建中的web</t>
+  </si>
+  <si>
+    <t>完成工程目录中的web搭建</t>
+  </si>
+  <si>
+    <t>学习hibernate框架</t>
+  </si>
+  <si>
+    <t>hibernate框架概述和web回顾</t>
+  </si>
+  <si>
+    <t>学习hibernate入门</t>
+  </si>
+  <si>
+    <t>hibernate入门学习完毕</t>
+  </si>
+  <si>
+    <t>学习hibernate配置文件详解</t>
+  </si>
+  <si>
+    <t>hibernate配置文件详解学习完毕</t>
+  </si>
+  <si>
+    <t>搭建web中的controller</t>
+  </si>
+  <si>
+    <t>controller搭建完成</t>
+  </si>
+  <si>
+    <t>搭建web中的webapp中的js</t>
+  </si>
+  <si>
+    <t>js完成搭建</t>
+  </si>
+  <si>
+    <t>制作自己模块的表格目录</t>
+  </si>
+  <si>
+    <t>表格目录自作完成</t>
+  </si>
+  <si>
+    <t>软件测试报告完成</t>
   </si>
 </sst>
 </file>
@@ -141,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +194,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,54 +262,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,51 +321,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,181 +337,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,13 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,6 +564,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -532,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,26 +614,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,10 +1148,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1313,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43236</v>
       </c>
@@ -1322,6 +1367,107 @@
       </c>
       <c r="C15" t="s">
         <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>43237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/awm/doc/log/log_201608040103_liuguangyue.xlsx
+++ b/awm/doc/log/log_201608040103_liuguangyue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>软件测试报告完成</t>
+  </si>
+  <si>
+    <t>Jenkins和jira的集成</t>
+  </si>
+  <si>
+    <t>完成中</t>
   </si>
 </sst>
 </file>
@@ -165,8 +171,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -192,9 +198,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,104 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -321,6 +289,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,187 +337,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +544,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -560,41 +571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,151 +598,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1154,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1470,6 +1476,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
